--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
@@ -58,18 +58,12 @@
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -79,49 +73,52 @@
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>price</t>
@@ -130,40 +127,46 @@
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
+    <t>toy</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,16 +682,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.796875</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.59375</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7524271844660194</v>
+        <v>0.7427184466019418</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.5660377358490566</v>
+        <v>0.578125</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.3762295081967213</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L8">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>761</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7204301075268817</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.3298755186721992</v>
+        <v>0.3860655737704918</v>
       </c>
       <c r="L9">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="M9">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>323</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.3285509325681492</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L10">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M10">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6418918918918919</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.2583333333333334</v>
+        <v>0.3132780082987552</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.2469879518072289</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.2048929663608563</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5301204819277109</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.1851851851851852</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4753623188405797</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.09553023663453111</v>
+        <v>0.09465381244522349</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4409448818897638</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16">
+        <v>0.04421326397919376</v>
+      </c>
+      <c r="L16">
+        <v>68</v>
+      </c>
+      <c r="M16">
         <v>71</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16">
-        <v>0.04935064935064935</v>
-      </c>
-      <c r="L16">
-        <v>76</v>
-      </c>
-      <c r="M16">
-        <v>77</v>
-      </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1464</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1308,13 +1311,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4105263157894737</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1334,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.390625</v>
+        <v>0.296875</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1360,13 +1363,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3316831683168317</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1386,13 +1389,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3033175355450237</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1412,13 +1415,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2905982905982906</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1430,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1438,13 +1441,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2422680412371134</v>
+        <v>0.215</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1464,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2225519287833828</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>524</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1490,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2215189873417721</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1516,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2101449275362319</v>
+        <v>0.1928783382789317</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>218</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1542,13 +1545,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.21</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>158</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1568,13 +1571,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1828193832599119</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C27">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>371</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1594,13 +1597,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.180379746835443</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>259</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1620,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1588785046728972</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1646,13 +1649,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1385767790262172</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>230</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1672,13 +1675,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1379310344827586</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1698,25 +1701,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09315068493150686</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>331</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1724,25 +1727,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07603305785123966</v>
+        <v>0.06960556844547564</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F33">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>559</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1750,25 +1753,51 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03666245259165613</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>0.03</v>
+      </c>
+      <c r="F34">
+        <v>0.97</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C35">
         <v>29</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0.09</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.91</v>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>762</v>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
